--- a/data/trans_orig/P6504-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A1D900C-3609-4148-BB2E-B45960A9D7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0369731F-9C69-41D7-880C-15A302ADA9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{901B6933-09D5-49A3-9C2C-008FF17BBE38}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F0A8050-309C-400C-80A4-1E63F5C80E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>48,03%</t>
   </si>
   <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>24,08%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>20,71%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>7,19%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -176,13 +176,16 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,33%</t>
+  </si>
+  <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,595 +197,580 @@
     <t>57,42%</t>
   </si>
   <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>68,0%</t>
   </si>
   <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
   <si>
     <t>22,83%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>3,27%</t>
   </si>
   <si>
     <t>4,69%</t>
@@ -1200,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3888822-C7F5-4C46-AC0B-3B63CE565235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9CA3D1-03E7-4277-84E3-B8793587E15D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1507,13 +1495,13 @@
         <v>14490</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1528,13 +1516,13 @@
         <v>176571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -1543,13 +1531,13 @@
         <v>141638</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>314</v>
@@ -1558,18 +1546,18 @@
         <v>318209</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1581,13 +1569,13 @@
         <v>318593</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>276</v>
@@ -1596,13 +1584,13 @@
         <v>290876</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>578</v>
@@ -1611,13 +1599,13 @@
         <v>609469</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,13 +1620,13 @@
         <v>126700</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -1647,13 +1635,13 @@
         <v>32035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>149</v>
@@ -1662,13 +1650,13 @@
         <v>158735</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,13 +1671,13 @@
         <v>85957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -1698,7 +1686,7 @@
         <v>9130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>73</v>
@@ -1785,13 +1773,13 @@
         <v>554853</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -1800,13 +1788,13 @@
         <v>341477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>849</v>
@@ -1815,13 +1803,13 @@
         <v>896330</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,7 +1964,7 @@
         <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,13 +1979,13 @@
         <v>29429</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2006,7 +1994,7 @@
         <v>4057</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>118</v>
@@ -2042,13 +2030,13 @@
         <v>567613</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>287</v>
@@ -2057,13 +2045,13 @@
         <v>304547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>836</v>
@@ -2072,13 +2060,13 @@
         <v>872160</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2287,13 @@
         <v>434368</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>161</v>
@@ -2314,13 +2302,13 @@
         <v>168801</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>565</v>
@@ -2329,13 +2317,13 @@
         <v>603169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2427,7 @@
         <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2442,13 @@
         <v>26457</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2469,13 +2457,13 @@
         <v>3882</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -2484,13 +2472,13 @@
         <v>30339</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2493,13 @@
         <v>9990</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2520,13 +2508,13 @@
         <v>1013</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -2535,13 +2523,13 @@
         <v>11003</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2544,13 @@
         <v>162468</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -2571,13 +2559,13 @@
         <v>64284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>227</v>
@@ -2586,18 +2574,18 @@
         <v>226752</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2609,13 +2597,13 @@
         <v>3232</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2624,13 +2612,13 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2639,13 +2627,13 @@
         <v>6853</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,10 +2651,10 @@
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2678,10 +2666,10 @@
         <v>45</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2693,10 +2681,10 @@
         <v>45</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2699,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2729,10 +2717,10 @@
         <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2741,13 +2729,13 @@
         <v>975</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2750,13 @@
         <v>831</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2780,10 +2768,10 @@
         <v>45</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2792,13 +2780,13 @@
         <v>831</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2801,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2828,13 +2816,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2843,13 +2831,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2854,13 @@
         <v>1061366</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H34" s="7">
         <v>788</v>
@@ -2881,13 +2869,13 @@
         <v>820836</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M34" s="7">
         <v>1803</v>
@@ -2896,13 +2884,13 @@
         <v>1882201</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2905,13 @@
         <v>403993</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>133</v>
@@ -2932,13 +2920,13 @@
         <v>142417</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>517</v>
@@ -2947,13 +2935,13 @@
         <v>546410</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,10 +2959,10 @@
         <v>106</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>39</v>
@@ -2983,13 +2971,13 @@
         <v>40573</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>366</v>
@@ -2998,13 +2986,13 @@
         <v>381260</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3007,13 @@
         <v>94866</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -3034,13 +3022,13 @@
         <v>20542</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>114</v>
@@ -3049,13 +3037,13 @@
         <v>115408</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3058,13 @@
         <v>1900911</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>980</v>
@@ -3085,13 +3073,13 @@
         <v>1024368</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>2800</v>
@@ -3100,18 +3088,18 @@
         <v>2925279</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6504-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0369731F-9C69-41D7-880C-15A302ADA9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8D8E0F-37E0-44A8-AEC2-77A64DCBF130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F0A8050-309C-400C-80A4-1E63F5C80E3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86CAEEA3-78A6-42D0-B6E1-39B6BA778871}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="249">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>48,03%</t>
   </si>
   <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>24,08%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>20,71%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>7,19%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -176,7 +176,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,33%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>4,55%</t>
@@ -185,7 +185,7 @@
     <t>2,67%</t>
   </si>
   <si>
-    <t>7,5%</t>
+    <t>7,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,94 +197,94 @@
     <t>57,42%</t>
   </si>
   <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>68,0%</t>
   </si>
   <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
   </si>
   <si>
     <t>22,83%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>5,13%</t>
@@ -293,10 +293,10 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -305,475 +305,481 @@
     <t>56,94%</t>
   </si>
   <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>64,25%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>4,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1188,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9CA3D1-03E7-4277-84E3-B8793587E15D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6134CAF-4228-4DB5-9629-C412885E69F0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1964,7 +1970,7 @@
         <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,7 +1985,7 @@
         <v>29429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>115</v>
@@ -2185,13 +2191,13 @@
         <v>89018</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2200,13 +2206,13 @@
         <v>7560</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>91</v>
@@ -2215,13 +2221,13 @@
         <v>96578</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2242,13 @@
         <v>18323</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2251,13 +2257,13 @@
         <v>4236</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -2266,13 +2272,13 @@
         <v>22560</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,7 +2334,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2340,13 +2346,13 @@
         <v>92954</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2355,13 +2361,13 @@
         <v>48416</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>140</v>
@@ -2370,13 +2376,13 @@
         <v>141371</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2397,13 @@
         <v>33067</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2406,13 +2412,13 @@
         <v>10972</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -2421,13 +2427,13 @@
         <v>44040</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,10 +2914,10 @@
         <v>223</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H35" s="7">
         <v>133</v>
@@ -2920,13 +2926,13 @@
         <v>142417</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M35" s="7">
         <v>517</v>
@@ -2935,13 +2941,13 @@
         <v>546410</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,7 +2965,7 @@
         <v>106</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>232</v>
@@ -2986,13 +2992,13 @@
         <v>381260</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3013,13 @@
         <v>94866</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -3022,13 +3028,13 @@
         <v>20542</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>114</v>
@@ -3037,13 +3043,13 @@
         <v>115408</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,7 +3105,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6504-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8D8E0F-37E0-44A8-AEC2-77A64DCBF130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9B1DB7-E3AA-4E59-AB5A-2D868A749244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86CAEEA3-78A6-42D0-B6E1-39B6BA778871}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D5A55E8B-1C81-4A6C-AD52-E9A6B669C6FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>48,03%</t>
   </si>
   <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,682 +104,688 @@
     <t>24,08%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>3,08%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6134CAF-4228-4DB5-9629-C412885E69F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C753DF-1AA7-47E2-BECD-C2A187EBE45C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1501,13 +1507,13 @@
         <v>14490</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1528,13 @@
         <v>176571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -1537,13 +1543,13 @@
         <v>141638</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>314</v>
@@ -1552,18 +1558,18 @@
         <v>318209</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1575,13 +1581,13 @@
         <v>318593</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>276</v>
@@ -1590,13 +1596,13 @@
         <v>290876</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>578</v>
@@ -1605,13 +1611,13 @@
         <v>609469</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,13 +1632,13 @@
         <v>126700</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -1641,13 +1647,13 @@
         <v>32035</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>149</v>
@@ -1656,13 +1662,13 @@
         <v>158735</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1683,13 @@
         <v>85957</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -1692,7 +1698,7 @@
         <v>9130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>73</v>
@@ -1779,13 +1785,13 @@
         <v>554853</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -1794,13 +1800,13 @@
         <v>341477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>849</v>
@@ -1809,13 +1815,13 @@
         <v>896330</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1991,13 @@
         <v>29429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2000,7 +2006,7 @@
         <v>4057</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>118</v>
@@ -2036,13 +2042,13 @@
         <v>567613</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>287</v>
@@ -2051,13 +2057,13 @@
         <v>304547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>836</v>
@@ -2066,13 +2072,13 @@
         <v>872160</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2197,13 @@
         <v>89018</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2206,13 +2212,13 @@
         <v>7560</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>91</v>
@@ -2221,13 +2227,13 @@
         <v>96578</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2248,13 @@
         <v>18323</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2257,13 +2263,13 @@
         <v>4236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -2272,13 +2278,13 @@
         <v>22560</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,13 +2299,13 @@
         <v>434368</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>161</v>
@@ -2308,13 +2314,13 @@
         <v>168801</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>565</v>
@@ -2323,18 +2329,18 @@
         <v>603169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2346,13 +2352,13 @@
         <v>92954</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2361,13 +2367,13 @@
         <v>48416</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>140</v>
@@ -2376,13 +2382,13 @@
         <v>141371</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2403,13 @@
         <v>33067</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2412,13 +2418,13 @@
         <v>10972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -2427,13 +2433,13 @@
         <v>44040</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2454,13 @@
         <v>26457</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2463,13 +2469,13 @@
         <v>3882</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -2478,13 +2484,13 @@
         <v>30339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2505,13 @@
         <v>9990</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2514,13 +2520,13 @@
         <v>1013</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -2529,13 +2535,13 @@
         <v>11003</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2556,13 @@
         <v>162468</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -2565,13 +2571,13 @@
         <v>64284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>227</v>
@@ -2580,18 +2586,18 @@
         <v>226752</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2603,13 +2609,13 @@
         <v>3232</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2618,13 +2624,13 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2633,13 +2639,13 @@
         <v>6853</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,10 +2663,10 @@
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2672,10 +2678,10 @@
         <v>45</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2687,10 +2693,10 @@
         <v>45</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2711,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2723,10 +2729,10 @@
         <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2735,13 +2741,13 @@
         <v>975</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2762,13 @@
         <v>831</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2774,10 +2780,10 @@
         <v>45</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2786,13 +2792,13 @@
         <v>831</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2813,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2822,13 +2828,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2837,13 +2843,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2866,13 @@
         <v>1061366</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H34" s="7">
         <v>788</v>
@@ -2875,13 +2881,13 @@
         <v>820836</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M34" s="7">
         <v>1803</v>
@@ -2890,13 +2896,13 @@
         <v>1882201</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2917,13 @@
         <v>403993</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>133</v>
@@ -2926,13 +2932,13 @@
         <v>142417</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>517</v>
@@ -2941,13 +2947,13 @@
         <v>546410</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,10 +2971,10 @@
         <v>106</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>39</v>
@@ -2977,13 +2983,13 @@
         <v>40573</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>366</v>
@@ -2992,13 +2998,13 @@
         <v>381260</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3019,13 @@
         <v>94866</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -3028,13 +3034,13 @@
         <v>20542</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>114</v>
@@ -3043,13 +3049,13 @@
         <v>115408</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3070,13 @@
         <v>1900911</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>980</v>
@@ -3079,13 +3085,13 @@
         <v>1024368</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>2800</v>
@@ -3094,18 +3100,18 @@
         <v>2925279</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6504-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9B1DB7-E3AA-4E59-AB5A-2D868A749244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE008D6-6B2E-424E-8A82-4E2C4E75EF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D5A55E8B-1C81-4A6C-AD52-E9A6B669C6FC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BBB8BA1D-6A93-446E-B8D1-A4A545EE1866}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="250">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -188,7 +188,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>57,42%</t>
@@ -299,7 +299,7 @@
     <t>5,19%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>56,94%</t>
@@ -407,7 +407,7 @@
     <t>5,25%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>54,92%</t>
@@ -518,7 +518,7 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>57,21%</t>
@@ -626,13 +626,10 @@
     <t>8,07%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -641,46 +638,46 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>30,57%</t>
+    <t>56,93%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>55,83%</t>
@@ -1200,8 +1197,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C753DF-1AA7-47E2-BECD-C2A187EBE45C}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009554BA-8D01-4C5A-B724-C5C800197043}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2603,19 +2600,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>3232</v>
+        <v>1593</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2624,28 +2621,28 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5</v>
+      </c>
+      <c r="N29" s="7">
+        <v>5213</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" s="7">
-        <v>7</v>
-      </c>
-      <c r="N29" s="7">
-        <v>6853</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,10 +2660,10 @@
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2678,10 +2675,10 @@
         <v>45</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2693,10 +2690,10 @@
         <v>45</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2708,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2729,10 +2726,10 @@
         <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2741,13 +2738,13 @@
         <v>975</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,19 +2753,19 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>831</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2780,25 +2777,25 @@
         <v>45</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>831</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,10 +2804,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>49</v>
@@ -2837,10 +2834,10 @@
         <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>49</v>
@@ -2854,55 +2851,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1015</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>1061366</v>
+        <v>1640</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
-        <v>788</v>
-      </c>
-      <c r="I34" s="7">
-        <v>820836</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M34" s="7">
-        <v>1803</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>1882201</v>
+        <v>1640</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,49 +2906,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>403993</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H35" s="7">
-        <v>133</v>
-      </c>
-      <c r="I35" s="7">
-        <v>142417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="M35" s="7">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>546410</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,49 +2955,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>340687</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="H36" s="7">
-        <v>39</v>
-      </c>
-      <c r="I36" s="7">
-        <v>40573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="M36" s="7">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>381260</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,49 +3004,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>94866</v>
+        <v>831</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="H37" s="7">
-        <v>20</v>
-      </c>
-      <c r="I37" s="7">
-        <v>20542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="M37" s="7">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>115408</v>
+        <v>831</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,63 +3053,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1061366</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="7">
+        <v>788</v>
+      </c>
+      <c r="I39" s="7">
+        <v>820836</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1803</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1882201</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>384</v>
+      </c>
+      <c r="D40" s="7">
+        <v>403993</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H40" s="7">
+        <v>133</v>
+      </c>
+      <c r="I40" s="7">
+        <v>142417</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M40" s="7">
+        <v>517</v>
+      </c>
+      <c r="N40" s="7">
+        <v>546410</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>327</v>
+      </c>
+      <c r="D41" s="7">
+        <v>340687</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H41" s="7">
+        <v>39</v>
+      </c>
+      <c r="I41" s="7">
+        <v>40573</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M41" s="7">
+        <v>366</v>
+      </c>
+      <c r="N41" s="7">
+        <v>381260</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>94</v>
+      </c>
+      <c r="D42" s="7">
+        <v>94866</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H42" s="7">
+        <v>20</v>
+      </c>
+      <c r="I42" s="7">
+        <v>20542</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M42" s="7">
+        <v>114</v>
+      </c>
+      <c r="N42" s="7">
+        <v>115408</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1820</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1900911</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="7">
         <v>980</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1024368</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="7">
         <v>2800</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2925279</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>250</v>
+      <c r="O43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
